--- a/staffing_2012.xlsx
+++ b/staffing_2012.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saranegri/Desktop/MASTER TESI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2381BF40-781A-5748-821A-8DE3DE64A38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4695CBC6-DDC3-D444-B82D-3D56080CA5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="960" windowWidth="15620" windowHeight="15960" xr2:uid="{502E2389-1A09-CE4B-B72C-12E67D6C35EA}"/>
+    <workbookView xWindow="260" yWindow="940" windowWidth="15620" windowHeight="15960" xr2:uid="{502E2389-1A09-CE4B-B72C-12E67D6C35EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -814,58 +814,58 @@
     <t>WOODLAND MEMORIAL HOSPITAL</t>
   </si>
   <si>
-    <t>Management &amp; Supervision</t>
-  </si>
-  <si>
-    <t>Technician &amp; Specialist</t>
-  </si>
-  <si>
-    <t>Registered Nurse</t>
-  </si>
-  <si>
-    <t>Licensed Vocational Nurse</t>
-  </si>
-  <si>
-    <t>Aides &amp; Orderlies</t>
-  </si>
-  <si>
-    <t>Clerical &amp; Other Administrative</t>
-  </si>
-  <si>
-    <t>Environmental &amp; Food Services</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Contracted Registry Nursing</t>
-  </si>
-  <si>
-    <t>Contracted Other</t>
-  </si>
-  <si>
-    <t>Daily Cost Centers</t>
-  </si>
-  <si>
-    <t>Ambulatory Cost Centers</t>
-  </si>
-  <si>
-    <t>Ancillary Cost Centers</t>
-  </si>
-  <si>
-    <t>Education Cost Centers</t>
-  </si>
-  <si>
-    <t>General Services Cost Centers</t>
-  </si>
-  <si>
-    <t>Fiscal Services Cost Centers</t>
-  </si>
-  <si>
-    <t>Administrative Services Cost Centers</t>
-  </si>
-  <si>
     <t>Gross_routine_patient_revenue</t>
+  </si>
+  <si>
+    <t>Management_&amp;_Supervision</t>
+  </si>
+  <si>
+    <t>Technician_&amp;_Specialist</t>
+  </si>
+  <si>
+    <t>Registered_Nurse</t>
+  </si>
+  <si>
+    <t>Licensed_Vocational_Nurse</t>
+  </si>
+  <si>
+    <t>Aides_&amp;_Orderlies</t>
+  </si>
+  <si>
+    <t>Clerical_&amp;_Other_Administrative</t>
+  </si>
+  <si>
+    <t>Environmental_&amp;_Food_Services</t>
+  </si>
+  <si>
+    <t>Contracted_Registry_Nursing</t>
+  </si>
+  <si>
+    <t>Contracted_Other</t>
+  </si>
+  <si>
+    <t>Daily_Cost_Centers</t>
+  </si>
+  <si>
+    <t>Ambulatory_Cost_Centers</t>
+  </si>
+  <si>
+    <t>Ancillary_Cost_Centers</t>
+  </si>
+  <si>
+    <t>Education_Cost_Centers</t>
+  </si>
+  <si>
+    <t>General_Services_Cost_Centers</t>
+  </si>
+  <si>
+    <t>Fiscal_Services_Cost_Centers</t>
+  </si>
+  <si>
+    <t>Administrative_Services_Cost_Centers</t>
   </si>
 </sst>
 </file>
@@ -1242,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC4B256-31FA-5346-9B78-337BA2032C04}">
   <dimension ref="A1:S259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1257,58 +1257,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M1" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O1" t="s">
+        <v>272</v>
+      </c>
+      <c r="P1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>274</v>
+      </c>
+      <c r="R1" t="s">
+        <v>275</v>
+      </c>
+      <c r="S1" t="s">
         <v>276</v>
-      </c>
-      <c r="C1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H1" t="s">
-        <v>264</v>
-      </c>
-      <c r="I1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J1" t="s">
-        <v>266</v>
-      </c>
-      <c r="K1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L1" t="s">
-        <v>268</v>
-      </c>
-      <c r="M1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N1" t="s">
-        <v>270</v>
-      </c>
-      <c r="O1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P1" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>273</v>
-      </c>
-      <c r="R1" t="s">
-        <v>274</v>
-      </c>
-      <c r="S1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">

--- a/staffing_2012.xlsx
+++ b/staffing_2012.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saranegri/Desktop/MASTER TESI/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4695CBC6-DDC3-D444-B82D-3D56080CA5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D518860-333C-CE40-8670-5A812DE6C5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="940" windowWidth="15620" windowHeight="15960" xr2:uid="{502E2389-1A09-CE4B-B72C-12E67D6C35EA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{502E2389-1A09-CE4B-B72C-12E67D6C35EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -820,27 +820,12 @@
     <t>Gross_routine_patient_revenue</t>
   </si>
   <si>
-    <t>Management_&amp;_Supervision</t>
-  </si>
-  <si>
-    <t>Technician_&amp;_Specialist</t>
-  </si>
-  <si>
     <t>Registered_Nurse</t>
   </si>
   <si>
     <t>Licensed_Vocational_Nurse</t>
   </si>
   <si>
-    <t>Aides_&amp;_Orderlies</t>
-  </si>
-  <si>
-    <t>Clerical_&amp;_Other_Administrative</t>
-  </si>
-  <si>
-    <t>Environmental_&amp;_Food_Services</t>
-  </si>
-  <si>
     <t>Contracted_Registry_Nursing</t>
   </si>
   <si>
@@ -866,6 +851,21 @@
   </si>
   <si>
     <t>Administrative_Services_Cost_Centers</t>
+  </si>
+  <si>
+    <t>Management_and_Supervision</t>
+  </si>
+  <si>
+    <t>Technician_and_Specialist</t>
+  </si>
+  <si>
+    <t>Aides_and_Orderlies</t>
+  </si>
+  <si>
+    <t>Clerical_and_Other_Administrative</t>
+  </si>
+  <si>
+    <t>Environmental_and_Food_Services</t>
   </si>
 </sst>
 </file>
@@ -1242,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC4B256-31FA-5346-9B78-337BA2032C04}">
   <dimension ref="A1:S259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1260,55 +1260,55 @@
         <v>260</v>
       </c>
       <c r="C1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" t="s">
         <v>261</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>262</v>
       </c>
-      <c r="E1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F1" t="s">
-        <v>264</v>
-      </c>
       <c r="G1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="I1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s">
         <v>259</v>
       </c>
       <c r="K1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L1" t="s">
+        <v>264</v>
+      </c>
+      <c r="M1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O1" t="s">
+        <v>267</v>
+      </c>
+      <c r="P1" t="s">
         <v>268</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>269</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>270</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>271</v>
-      </c>
-      <c r="O1" t="s">
-        <v>272</v>
-      </c>
-      <c r="P1" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>274</v>
-      </c>
-      <c r="R1" t="s">
-        <v>275</v>
-      </c>
-      <c r="S1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
